--- a/public/Sample_Name_Change_Masters.xlsx
+++ b/public/Sample_Name_Change_Masters.xlsx
@@ -4,8 +4,6 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Company Masters" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Name Change Masters" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>NSE</t>
   </si>
@@ -34,69 +32,6 @@
   </si>
   <si>
     <t>test</t>
-  </si>
-  <si>
-    <t>Name of the Company(as per certificate)</t>
-  </si>
-  <si>
-    <t>Current Name of the Company</t>
-  </si>
-  <si>
-    <t>ISIN</t>
-  </si>
-  <si>
-    <t>CIN</t>
-  </si>
-  <si>
-    <t>Face Value</t>
-  </si>
-  <si>
-    <t>Closing Price in NSE</t>
-  </si>
-  <si>
-    <t>Closing Price in BSE</t>
-  </si>
-  <si>
-    <t>Registered Office</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Pincode</t>
-  </si>
-  <si>
-    <t>Telephone</t>
-  </si>
-  <si>
-    <t>Fax</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Name of Contact Person</t>
-  </si>
-  <si>
-    <t>Email of Contact Person</t>
-  </si>
-  <si>
-    <t>Phone of Contact Person</t>
-  </si>
-  <si>
-    <t>Designation of Contact Person</t>
-  </si>
-  <si>
-    <t>llllllll</t>
-  </si>
-  <si>
-    <t>aaaaa</t>
   </si>
 </sst>
 </file>
@@ -114,12 +49,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -137,23 +72,23 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </left>
       <right style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </right>
       <top style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -161,9 +96,6 @@
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -178,14 +110,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -451,193 +375,17 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="1">
-        <v>990.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2">
-        <v>45542.0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>8.0</v>
-      </c>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/public/Sample_Name_Change_Masters.xlsx
+++ b/public/Sample_Name_Change_Masters.xlsx
@@ -19,7 +19,7 @@
     <t>BSE</t>
   </si>
   <si>
-    <t>New Name</t>
+    <t>New Name*</t>
   </si>
   <si>
     <t>Previous Name</t>
@@ -28,7 +28,7 @@
     <t>Date of Name Change</t>
   </si>
   <si>
-    <t>Company Master Id</t>
+    <t>Company Master Id*</t>
   </si>
   <si>
     <t>test</t>
@@ -72,23 +72,23 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FF888888"/>
+        <color rgb="FF757575"/>
       </left>
       <right style="thin">
-        <color rgb="FF888888"/>
+        <color rgb="FF757575"/>
       </right>
       <top style="thin">
-        <color rgb="FF888888"/>
+        <color rgb="FF757575"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF888888"/>
+        <color rgb="FF757575"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -97,6 +97,9 @@
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -375,13 +378,13 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
